--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/10/seed2/result_data_KNN.xlsx
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.086</v>
+        <v>-21.64</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.894</v>
+        <v>-12.774</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.222</v>
+        <v>-8.001999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.306</v>
+        <v>-20.257</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.59</v>
+        <v>-20.955</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -842,10 +842,10 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.764</v>
+        <v>-12.658</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.156000000000001</v>
+        <v>-7.657999999999999</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.466</v>
+        <v>-21.671</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.964</v>
+        <v>5.513</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.514</v>
+        <v>-7.234999999999999</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,13 +958,13 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.938</v>
+        <v>6.016</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.215999999999999</v>
+        <v>-8.127000000000001</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.806</v>
+        <v>-7.622</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>8.368</v>
+        <v>7.915000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.324</v>
+        <v>5.274</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.966</v>
+        <v>5.962</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.044</v>
+        <v>5.295</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.748</v>
+        <v>-22.01</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1366,13 +1366,13 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.544</v>
+        <v>4.508</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.087999999999999</v>
+        <v>-8.221</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.104</v>
+        <v>5.169</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.766</v>
+        <v>-21.768</v>
       </c>
       <c r="B57" t="n">
-        <v>6.069999999999999</v>
+        <v>6.531000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.276</v>
+        <v>-12.98</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.876</v>
+        <v>-22.363</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-12.4</v>
+        <v>-13.508</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.902000000000001</v>
+        <v>-7.869</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.606</v>
+        <v>-21.634</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.568</v>
+        <v>-12.166</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.803999999999999</v>
+        <v>-7.5</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>7.723999999999999</v>
+        <v>7.343000000000001</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1712,7 +1712,7 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-8.004000000000001</v>
+        <v>-7.702</v>
       </c>
       <c r="E75" t="n">
         <v>16.51</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.256</v>
+        <v>-21.115</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.3</v>
+        <v>-22.134</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.66</v>
+        <v>-8.512</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-14.05</v>
+        <v>-13.597</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.674</v>
+        <v>5.999</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>6.012</v>
+        <v>5.811</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.892</v>
+        <v>-21.536</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.228</v>
+        <v>-7.411000000000001</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.440000000000001</v>
+        <v>-8.166</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.058</v>
+        <v>-12.45</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.67</v>
+        <v>-12.621</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.826</v>
+        <v>-13.564</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
